--- a/documentacao/eap-gantt.xlsx
+++ b/documentacao/eap-gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\tiago\faculdade\gerenciamento-software\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A861E9A1-E1D4-4AE0-94BA-492C234C82D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FF2B1C-E96C-44C9-A3B5-D6148FB9FF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{804ACD51-85FD-475A-949B-B4576FE310A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{804ACD51-85FD-475A-949B-B4576FE310A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="228">
   <si>
     <t>Nível 1</t>
   </si>
@@ -971,7 +971,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1818,7 +1818,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7B9E6FCD-91FA-4847-A1CD-1D89FB9840DD}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2157,11 +2157,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC84F76D-DD96-4E1C-B208-4A56AE55DAAE}">
   <dimension ref="A1:AK81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomRight" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="AJ47" s="1">
         <f>SUMIFS('Horas Trabalhadas'!$D:$D,'Horas Trabalhadas'!$B:$B,$A47,'Horas Trabalhadas'!$C:$C,"&lt;"&amp;Planejamento!AK$1,'Horas Trabalhadas'!$C:$C,"&gt;="&amp;AJ$1)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK47" s="1">
         <f>SUMIFS('Horas Trabalhadas'!$D:$D,'Horas Trabalhadas'!$B:$B,$A47,'Horas Trabalhadas'!$C:$C,"&lt;"&amp;Planejamento!AL$1,'Horas Trabalhadas'!$C:$C,"&gt;="&amp;AK$1)</f>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="AJ79" s="1">
         <f t="shared" ref="AJ79" si="22">SUM(AJ2:AJ78)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK79" s="1">
         <f t="shared" ref="AK79" si="23">SUM(AK2:AK78)</f>
@@ -11610,8 +11610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB876110-36E2-4389-9494-E58BFAE7ACDB}">
   <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12227,45 +12227,105 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
+      <c r="B28" s="3">
+        <v>46</v>
+      </c>
+      <c r="C28" s="6">
+        <v>45084</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
+      <c r="B29" s="3">
+        <v>46</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45083</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
+      <c r="B30" s="3">
+        <v>46</v>
+      </c>
+      <c r="C30" s="6">
+        <v>45082</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
+      <c r="B31" s="3">
+        <v>46</v>
+      </c>
+      <c r="C31" s="6">
+        <v>45083</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
+      <c r="B32" s="3">
+        <v>46</v>
+      </c>
+      <c r="C32" s="6">
+        <v>45082</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -15780,7 +15840,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -15925,7 +15985,7 @@
       </c>
       <c r="K7" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="3"/>

--- a/documentacao/eap-gantt.xlsx
+++ b/documentacao/eap-gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\tiago\faculdade\gerenciamento-software\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2B75FE-B28F-4D4D-B77A-52F2CB91668E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C39038E-CB03-442D-A316-8FC0ADCDCB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{804ACD51-85FD-475A-949B-B4576FE310A5}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="228">
   <si>
     <t>Nível 1</t>
   </si>
@@ -753,6 +753,9 @@
   </si>
   <si>
     <t>Criação do WebSocket</t>
+  </si>
+  <si>
+    <t>Criação da Lógica de Totalidade</t>
   </si>
 </sst>
 </file>
@@ -968,7 +971,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1815,7 +1818,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7B9E6FCD-91FA-4847-A1CD-1D89FB9840DD}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="159" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1826,7 +1829,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9633857" cy="5996214"/>
+    <xdr:ext cx="9636824" cy="6006541"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -2152,13 +2155,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC84F76D-DD96-4E1C-B208-4A56AE55DAAE}">
-  <dimension ref="A1:AK80"/>
+  <dimension ref="A1:AK81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7789,7 +7792,7 @@
       </c>
       <c r="AJ47" s="1">
         <f>SUMIFS('Horas Trabalhadas'!$D:$D,'Horas Trabalhadas'!$B:$B,$A47,'Horas Trabalhadas'!$C:$C,"&lt;"&amp;Planejamento!AK$1,'Horas Trabalhadas'!$C:$C,"&gt;="&amp;AJ$1)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK47" s="1">
         <f>SUMIFS('Horas Trabalhadas'!$D:$D,'Horas Trabalhadas'!$B:$B,$A47,'Horas Trabalhadas'!$C:$C,"&lt;"&amp;Planejamento!AL$1,'Horas Trabalhadas'!$C:$C,"&gt;="&amp;AK$1)</f>
@@ -11532,7 +11535,7 @@
       </c>
       <c r="AJ79" s="1">
         <f t="shared" ref="AJ79" si="22">SUM(AJ2:AJ78)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK79" s="1">
         <f t="shared" ref="AK79" si="23">SUM(AK2:AK78)</f>
@@ -11585,6 +11588,14 @@
       <c r="AA80" s="8">
         <f t="shared" si="24"/>
         <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -11599,8 +11610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB876110-36E2-4389-9494-E58BFAE7ACDB}">
   <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12216,45 +12227,105 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
+      <c r="B28" s="3">
+        <v>46</v>
+      </c>
+      <c r="C28" s="6">
+        <v>45084</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
+      <c r="B29" s="3">
+        <v>46</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45083</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
+      <c r="B30" s="3">
+        <v>46</v>
+      </c>
+      <c r="C30" s="6">
+        <v>45082</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
+      <c r="B31" s="3">
+        <v>46</v>
+      </c>
+      <c r="C31" s="6">
+        <v>45083</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
+      <c r="B32" s="3">
+        <v>46</v>
+      </c>
+      <c r="C32" s="6">
+        <v>45082</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -15769,7 +15840,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3">
         <v>0</v>
@@ -15914,7 +15985,7 @@
       </c>
       <c r="K7" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="3"/>

--- a/documentacao/eap-gantt.xlsx
+++ b/documentacao/eap-gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\Documents\uff\Gerencia\trabalho-gerencia-projetos\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6507E3B-8DA2-49FB-9EF5-2AE23574BF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9B7B06-506A-4BB6-9ED0-8DEF7C05F3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8310" yWindow="-16320" windowWidth="38640" windowHeight="16440" activeTab="1" xr2:uid="{804ACD51-85FD-475A-949B-B4576FE310A5}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="230">
   <si>
     <t>Nível 1</t>
   </si>
@@ -2262,10 +2262,10 @@
   <dimension ref="A1:AK82"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11614,83 +11614,83 @@
         <v>442</v>
       </c>
       <c r="R80" s="1">
-        <f>SUM(R2:R79)</f>
+        <f t="shared" ref="R80:AK80" si="15">SUM(R2:R79)</f>
         <v>30</v>
       </c>
       <c r="S80" s="1">
-        <f>SUM(S2:S79)</f>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="T80" s="1">
-        <f>SUM(T2:T79)</f>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="U80" s="1">
-        <f>SUM(U2:U79)</f>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="V80" s="1">
-        <f>SUM(V2:V79)</f>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
       <c r="W80" s="1">
-        <f>SUM(W2:W79)</f>
+        <f t="shared" si="15"/>
         <v>76</v>
       </c>
       <c r="X80" s="1">
-        <f>SUM(X2:X79)</f>
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
       <c r="Y80" s="1">
-        <f>SUM(Y2:Y79)</f>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
       <c r="Z80" s="1">
-        <f>SUM(Z2:Z79)</f>
+        <f t="shared" si="15"/>
         <v>56</v>
       </c>
       <c r="AA80" s="1">
-        <f>SUM(AA2:AA79)</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="AB80" s="1">
-        <f>SUM(AB2:AB79)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AC80" s="1">
-        <f>SUM(AC2:AC79)</f>
+        <f t="shared" si="15"/>
         <v>12.5</v>
       </c>
       <c r="AD80" s="1">
-        <f>SUM(AD2:AD79)</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="AE80" s="1">
-        <f>SUM(AE2:AE79)</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="AF80" s="1">
-        <f>SUM(AF2:AF79)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AG80" s="1">
-        <f>SUM(AG2:AG79)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AH80" s="1">
-        <f>SUM(AH2:AH79)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AI80" s="1">
-        <f>SUM(AI2:AI79)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AJ80" s="1">
-        <f>SUM(AJ2:AJ79)</f>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="AK80" s="1">
-        <f>SUM(AK2:AK79)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -11706,39 +11706,39 @@
         <v>5</v>
       </c>
       <c r="S81" s="7">
-        <f t="shared" ref="S81:AA81" si="15">S80/6</f>
+        <f t="shared" ref="S81:AA81" si="16">S80/6</f>
         <v>7.666666666666667</v>
       </c>
       <c r="T81" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.333333333333333</v>
       </c>
       <c r="U81" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="V81" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.6666666666666661</v>
       </c>
       <c r="W81" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12.666666666666666</v>
       </c>
       <c r="X81" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.5</v>
       </c>
       <c r="Y81" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.333333333333333</v>
       </c>
       <c r="Z81" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.3333333333333339</v>
       </c>
       <c r="AA81" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.3333333333333335</v>
       </c>
     </row>
@@ -11763,8 +11763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB876110-36E2-4389-9494-E58BFAE7ACDB}">
   <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11821,7 +11821,7 @@
         <v>203</v>
       </c>
       <c r="G2" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B2,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B2,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B2,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B2,planejamento,6,FALSE),"")</f>
+        <f t="shared" ref="G2:G65" si="0">IFERROR(VLOOKUP(B2,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B2,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B2,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B2,planejamento,6,FALSE),"")</f>
         <v>Planejamento/Estimativas/Levantar EAP/</v>
       </c>
     </row>
@@ -11845,7 +11845,7 @@
         <v>203</v>
       </c>
       <c r="G3" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B3,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B3,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B3,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B3,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Planejamento/Estimativas/Levantar EAP/</v>
       </c>
     </row>
@@ -11869,7 +11869,7 @@
         <v>203</v>
       </c>
       <c r="G4" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B4,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B4,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B4,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B4,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Planejamento/Estimativas/Levantar EAP/</v>
       </c>
     </row>
@@ -11893,7 +11893,7 @@
         <v>203</v>
       </c>
       <c r="G5" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B5,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B5,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B5,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B5,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Planejamento/Estimativas/Levantar EAP/</v>
       </c>
     </row>
@@ -11917,7 +11917,7 @@
         <v>203</v>
       </c>
       <c r="G6" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B6,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B6,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B6,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B6,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Planejamento/Estimativas/Levantar EAP/</v>
       </c>
     </row>
@@ -11941,7 +11941,7 @@
         <v>203</v>
       </c>
       <c r="G7" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B7,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B7,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B7,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B7,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Planejamento/Estimativas/Levantar EAP/</v>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B8,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B8,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B8,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B8,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Gerenciamento/Monitoramento e Documentação//</v>
       </c>
     </row>
@@ -11987,7 +11987,7 @@
         <v>203</v>
       </c>
       <c r="G9" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B9,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B9,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B9,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B9,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Gerenciamento/Sprints//</v>
       </c>
     </row>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B10,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B10,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B10,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B10,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Gerenciamento/Sprints//</v>
       </c>
     </row>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B11,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B11,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B11,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B11,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Gerenciamento/Sprints//</v>
       </c>
     </row>
@@ -12053,7 +12053,7 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B12,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B12,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B12,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B12,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Prototipação/Wireframe/Menu de Configurações</v>
       </c>
     </row>
@@ -12077,7 +12077,7 @@
         <v>221</v>
       </c>
       <c r="G13" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B13,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B13,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B13,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B13,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Planejamento/Estimativas/Levantar EAP/</v>
       </c>
     </row>
@@ -12099,7 +12099,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B14,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B14,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B14,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B14,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Prototipação/Wireframe/Escolha de Ativos</v>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B15,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B15,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B15,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B15,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Prototipação/Wireframe/Escolha da Paleta e Tipografia</v>
       </c>
     </row>
@@ -12143,7 +12143,7 @@
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B16,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B16,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B16,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B16,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Prototipação/Wireframe/Tela Inicial</v>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B17,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B17,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B17,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B17,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Gerenciamento/Sprints//</v>
       </c>
     </row>
@@ -12187,7 +12187,7 @@
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B18,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B18,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B18,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B18,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Prototipação/Wireframe/Criação da Tela de Jogo</v>
       </c>
     </row>
@@ -12209,7 +12209,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B19,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B19,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B19,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B19,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Backend/Lógica do Jogo/Factory de territórios</v>
       </c>
     </row>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B20,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B20,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B20,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B20,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Backend/Lógica do Jogo/Criação da Lógica de Alocação de Exércitos</v>
       </c>
     </row>
@@ -12255,7 +12255,7 @@
         <v>222</v>
       </c>
       <c r="G21" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B21,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B21,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B21,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B21,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Planejamento/Risco/Análise Qualitativa/</v>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B22,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B22,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B22,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B22,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Planejamento/Estimativas/Levantar EAP/</v>
       </c>
     </row>
@@ -12299,7 +12299,7 @@
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B23,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B23,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B23,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B23,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Planejamento/Estimativas/Calcular custos EAP/</v>
       </c>
     </row>
@@ -12321,7 +12321,7 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B24,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B24,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B24,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B24,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Gerenciamento/Comunicação//</v>
       </c>
     </row>
@@ -12345,7 +12345,7 @@
         <v>223</v>
       </c>
       <c r="G25" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B25,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B25,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B25,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B25,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Planejamento/Risco/Análise Quantitativa/</v>
       </c>
     </row>
@@ -12367,7 +12367,7 @@
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B26,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B26,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B26,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B26,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Planejamento/Estimativas/Calcular custos EAP/</v>
       </c>
     </row>
@@ -12389,7 +12389,7 @@
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B27,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B27,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B27,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B27,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Planejamento/Estimativas/Calcular custos EAP/</v>
       </c>
     </row>
@@ -12411,7 +12411,7 @@
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B28,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B28,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B28,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B28,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Backend/Arquitetura/Lógica de comunicação client+server</v>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B29,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B29,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B29,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B29,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Backend/Arquitetura/Lógica de comunicação client+server</v>
       </c>
     </row>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B30,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B30,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B30,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B30,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Backend/Arquitetura/Lógica de comunicação client+server</v>
       </c>
     </row>
@@ -12477,7 +12477,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B31,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B31,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B31,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B31,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Backend/Arquitetura/Lógica de comunicação client+server</v>
       </c>
     </row>
@@ -12499,7 +12499,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B32,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B32,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B32,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B32,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B33,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B33,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B33,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B33,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B34,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B34,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B34,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B34,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B35,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B35,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B35,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B35,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B36,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B36,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B36,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B36,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Backend/Arquitetura/Lógica de comunicação client+server</v>
       </c>
     </row>
@@ -12609,7 +12609,7 @@
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B37,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B37,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B37,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B37,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Frontend/UI/Criação da UI de Exércitos Disponíveis</v>
       </c>
     </row>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B38,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B38,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B38,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B38,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Backend/Arquitetura/Lógica de comunicação client+server</v>
       </c>
     </row>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B39,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B39,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B39,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B39,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>Desenvolvimento/Backend/Arquitetura/Lógica de comunicação client+server</v>
       </c>
     </row>
@@ -12661,14 +12661,22 @@
       <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
+      <c r="B40" s="11">
+        <v>19</v>
+      </c>
+      <c r="C40" s="12">
+        <v>45086</v>
+      </c>
+      <c r="D40" s="11">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>197</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B40,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B40,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B40,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B40,planejamento,6,FALSE),"")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>Desenvolvimento/Backend/Arquitetura/Lógica de comunicação client+server</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -12681,7 +12689,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B41,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B41,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B41,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B41,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12695,7 +12703,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B42,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B42,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B42,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B42,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12709,7 +12717,7 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B43,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B43,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B43,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B43,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12723,7 +12731,7 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B44,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B44,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B44,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B44,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12737,7 +12745,7 @@
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B45,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B45,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B45,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B45,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12751,7 +12759,7 @@
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B46,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B46,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B46,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B46,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12765,7 +12773,7 @@
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B47,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B47,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B47,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B47,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12779,7 +12787,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B48,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B48,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B48,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B48,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12793,7 +12801,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B49,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B49,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B49,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B49,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12807,7 +12815,7 @@
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B50,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B50,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B50,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B50,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12821,7 +12829,7 @@
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B51,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B51,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B51,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B51,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12835,7 +12843,7 @@
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B52,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B52,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B52,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B52,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12849,7 +12857,7 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B53,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B53,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B53,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B53,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12863,7 +12871,7 @@
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B54,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B54,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B54,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B54,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12877,7 +12885,7 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B55,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B55,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B55,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B55,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12891,7 +12899,7 @@
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B56,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B56,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B56,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B56,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12905,7 +12913,7 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B57,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B57,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B57,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B57,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12919,7 +12927,7 @@
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B58,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B58,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B58,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B58,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12933,7 +12941,7 @@
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B59,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B59,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B59,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B59,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12947,7 +12955,7 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B60,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B60,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B60,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B60,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12961,7 +12969,7 @@
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B61,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B61,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B61,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B61,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12975,7 +12983,7 @@
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B62,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B62,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B62,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B62,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12989,7 +12997,7 @@
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B63,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B63,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B63,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B63,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -13003,7 +13011,7 @@
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B64,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B64,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B64,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B64,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -13017,7 +13025,7 @@
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B65,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B65,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B65,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B65,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -13031,7 +13039,7 @@
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B66,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B66,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B66,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B66,planejamento,6,FALSE),"")</f>
+        <f t="shared" ref="G66:G129" si="1">IFERROR(VLOOKUP(B66,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B66,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B66,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B66,planejamento,6,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -13045,7 +13053,7 @@
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B67,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B67,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B67,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B67,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13059,7 +13067,7 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B68,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B68,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B68,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B68,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13073,7 +13081,7 @@
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B69,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B69,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B69,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B69,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13087,7 +13095,7 @@
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B70,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B70,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B70,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B70,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13101,7 +13109,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B71,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B71,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B71,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B71,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13115,7 +13123,7 @@
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B72,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B72,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B72,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B72,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13129,7 +13137,7 @@
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B73,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B73,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B73,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B73,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13143,7 +13151,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B74,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B74,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B74,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B74,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13157,7 +13165,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B75,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B75,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B75,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B75,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13171,7 +13179,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B76,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B76,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B76,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B76,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13185,7 +13193,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B77,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B77,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B77,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B77,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13199,7 +13207,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B78,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B78,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B78,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B78,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13213,7 +13221,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B79,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B79,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B79,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B79,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13227,7 +13235,7 @@
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B80,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B80,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B80,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B80,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13241,7 +13249,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B81,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B81,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B81,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B81,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13255,7 +13263,7 @@
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B82,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B82,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B82,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B82,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13269,7 +13277,7 @@
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B83,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B83,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B83,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B83,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13283,7 +13291,7 @@
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B84,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B84,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B84,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B84,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13297,7 +13305,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B85,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B85,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B85,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B85,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13311,7 +13319,7 @@
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B86,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B86,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B86,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B86,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13325,7 +13333,7 @@
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B87,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B87,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B87,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B87,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13339,7 +13347,7 @@
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B88,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B88,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B88,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B88,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13353,7 +13361,7 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B89,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B89,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B89,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B89,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13367,7 +13375,7 @@
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B90,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B90,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B90,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B90,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13381,7 +13389,7 @@
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B91,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B91,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B91,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B91,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13395,7 +13403,7 @@
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B92,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B92,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B92,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B92,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13409,7 +13417,7 @@
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B93,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B93,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B93,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B93,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13423,7 +13431,7 @@
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B94,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B94,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B94,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B94,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13437,7 +13445,7 @@
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B95,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B95,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B95,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B95,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13451,7 +13459,7 @@
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B96,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B96,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B96,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B96,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13465,7 +13473,7 @@
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B97,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B97,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B97,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B97,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13479,7 +13487,7 @@
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B98,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B98,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B98,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B98,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13493,7 +13501,7 @@
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B99,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B99,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B99,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B99,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13507,7 +13515,7 @@
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B100,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B100,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B100,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B100,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13521,7 +13529,7 @@
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B101,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B101,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B101,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B101,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13535,7 +13543,7 @@
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B102,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B102,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B102,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B102,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13549,7 +13557,7 @@
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B103,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B103,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B103,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B103,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13563,7 +13571,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
       <c r="G104" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B104,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B104,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B104,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B104,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13577,7 +13585,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B105,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B105,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B105,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B105,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13591,7 +13599,7 @@
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B106,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B106,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B106,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B106,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13605,7 +13613,7 @@
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B107,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B107,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B107,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B107,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13619,7 +13627,7 @@
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B108,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B108,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B108,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B108,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13633,7 +13641,7 @@
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B109,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B109,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B109,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B109,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13647,7 +13655,7 @@
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B110,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B110,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B110,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B110,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13661,7 +13669,7 @@
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B111,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B111,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B111,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B111,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13675,7 +13683,7 @@
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B112,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B112,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B112,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B112,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13689,7 +13697,7 @@
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B113,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B113,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B113,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B113,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13703,7 +13711,7 @@
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B114,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B114,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B114,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B114,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13717,7 +13725,7 @@
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B115,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B115,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B115,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B115,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13731,7 +13739,7 @@
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B116,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B116,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B116,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B116,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13745,7 +13753,7 @@
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B117,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B117,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B117,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B117,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13759,7 +13767,7 @@
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B118,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B118,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B118,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B118,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13773,7 +13781,7 @@
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B119,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B119,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B119,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B119,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13787,7 +13795,7 @@
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B120,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B120,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B120,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B120,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13801,7 +13809,7 @@
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B121,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B121,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B121,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B121,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13815,7 +13823,7 @@
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B122,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B122,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B122,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B122,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13829,7 +13837,7 @@
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B123,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B123,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B123,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B123,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13843,7 +13851,7 @@
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B124,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B124,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B124,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B124,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13857,7 +13865,7 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B125,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B125,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B125,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B125,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13871,7 +13879,7 @@
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="G126" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B126,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B126,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B126,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B126,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13885,7 +13893,7 @@
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B127,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B127,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B127,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B127,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13899,7 +13907,7 @@
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B128,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B128,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B128,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B128,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13913,7 +13921,7 @@
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B129,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B129,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B129,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B129,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -13927,7 +13935,7 @@
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B130,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B130,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B130,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B130,planejamento,6,FALSE),"")</f>
+        <f t="shared" ref="G130:G193" si="2">IFERROR(VLOOKUP(B130,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B130,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B130,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B130,planejamento,6,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -13941,7 +13949,7 @@
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B131,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B131,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B131,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B131,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -13955,7 +13963,7 @@
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B132,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B132,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B132,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B132,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -13969,7 +13977,7 @@
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B133,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B133,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B133,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B133,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -13983,7 +13991,7 @@
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="G134" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B134,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B134,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B134,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B134,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -13997,7 +14005,7 @@
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B135,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B135,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B135,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B135,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14011,7 +14019,7 @@
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
       <c r="G136" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B136,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B136,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B136,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B136,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14025,7 +14033,7 @@
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
       <c r="G137" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B137,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B137,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B137,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B137,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14039,7 +14047,7 @@
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B138,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B138,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B138,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B138,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14053,7 +14061,7 @@
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
       <c r="G139" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B139,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B139,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B139,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B139,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14067,7 +14075,7 @@
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
       <c r="G140" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B140,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B140,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B140,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B140,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14081,7 +14089,7 @@
       <c r="E141" s="11"/>
       <c r="F141" s="11"/>
       <c r="G141" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B141,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B141,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B141,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B141,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14095,7 +14103,7 @@
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
       <c r="G142" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B142,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B142,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B142,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B142,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14109,7 +14117,7 @@
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
       <c r="G143" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B143,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B143,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B143,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B143,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14123,7 +14131,7 @@
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B144,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B144,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B144,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B144,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14137,7 +14145,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B145,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B145,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B145,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B145,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14151,7 +14159,7 @@
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B146,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B146,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B146,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B146,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14165,7 +14173,7 @@
       <c r="E147" s="11"/>
       <c r="F147" s="11"/>
       <c r="G147" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B147,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B147,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B147,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B147,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14179,7 +14187,7 @@
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B148,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B148,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B148,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B148,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14193,7 +14201,7 @@
       <c r="E149" s="11"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B149,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B149,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B149,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B149,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14207,7 +14215,7 @@
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B150,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B150,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B150,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B150,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14221,7 +14229,7 @@
       <c r="E151" s="11"/>
       <c r="F151" s="11"/>
       <c r="G151" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B151,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B151,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B151,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B151,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14235,7 +14243,7 @@
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B152,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B152,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B152,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B152,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14249,7 +14257,7 @@
       <c r="E153" s="11"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B153,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B153,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B153,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B153,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14263,7 +14271,7 @@
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
       <c r="G154" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B154,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B154,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B154,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B154,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14277,7 +14285,7 @@
       <c r="E155" s="11"/>
       <c r="F155" s="11"/>
       <c r="G155" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B155,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B155,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B155,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B155,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14291,7 +14299,7 @@
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
       <c r="G156" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B156,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B156,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B156,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B156,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14305,7 +14313,7 @@
       <c r="E157" s="11"/>
       <c r="F157" s="11"/>
       <c r="G157" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B157,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B157,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B157,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B157,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14319,7 +14327,7 @@
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
       <c r="G158" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B158,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B158,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B158,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B158,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14333,7 +14341,7 @@
       <c r="E159" s="11"/>
       <c r="F159" s="11"/>
       <c r="G159" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B159,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B159,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B159,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B159,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14347,7 +14355,7 @@
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
       <c r="G160" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B160,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B160,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B160,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B160,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14361,7 +14369,7 @@
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
       <c r="G161" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B161,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B161,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B161,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B161,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14375,7 +14383,7 @@
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
       <c r="G162" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B162,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B162,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B162,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B162,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14389,7 +14397,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
       <c r="G163" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B163,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B163,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B163,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B163,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14403,7 +14411,7 @@
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
       <c r="G164" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B164,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B164,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B164,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B164,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14417,7 +14425,7 @@
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
       <c r="G165" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B165,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B165,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B165,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B165,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14431,7 +14439,7 @@
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
       <c r="G166" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B166,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B166,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B166,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B166,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14445,7 +14453,7 @@
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
       <c r="G167" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B167,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B167,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B167,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B167,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14459,7 +14467,7 @@
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
       <c r="G168" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B168,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B168,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B168,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B168,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14473,7 +14481,7 @@
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
       <c r="G169" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B169,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B169,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B169,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B169,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14487,7 +14495,7 @@
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
       <c r="G170" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B170,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B170,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B170,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B170,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14501,7 +14509,7 @@
       <c r="E171" s="11"/>
       <c r="F171" s="11"/>
       <c r="G171" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B171,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B171,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B171,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B171,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14515,7 +14523,7 @@
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
       <c r="G172" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B172,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B172,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B172,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B172,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14529,7 +14537,7 @@
       <c r="E173" s="11"/>
       <c r="F173" s="11"/>
       <c r="G173" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B173,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B173,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B173,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B173,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14543,7 +14551,7 @@
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
       <c r="G174" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B174,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B174,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B174,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B174,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14557,7 +14565,7 @@
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
       <c r="G175" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B175,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B175,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B175,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B175,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14571,7 +14579,7 @@
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
       <c r="G176" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B176,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B176,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B176,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B176,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14585,7 +14593,7 @@
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
       <c r="G177" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B177,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B177,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B177,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B177,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14599,7 +14607,7 @@
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
       <c r="G178" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B178,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B178,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B178,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B178,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14613,7 +14621,7 @@
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
       <c r="G179" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B179,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B179,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B179,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B179,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14627,7 +14635,7 @@
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
       <c r="G180" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B180,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B180,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B180,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B180,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14641,7 +14649,7 @@
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
       <c r="G181" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B181,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B181,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B181,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B181,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14655,7 +14663,7 @@
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
       <c r="G182" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B182,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B182,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B182,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B182,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14669,7 +14677,7 @@
       <c r="E183" s="11"/>
       <c r="F183" s="11"/>
       <c r="G183" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B183,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B183,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B183,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B183,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14683,7 +14691,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
       <c r="G184" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B184,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B184,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B184,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B184,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14697,7 +14705,7 @@
       <c r="E185" s="11"/>
       <c r="F185" s="11"/>
       <c r="G185" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B185,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B185,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B185,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B185,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14711,7 +14719,7 @@
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
       <c r="G186" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B186,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B186,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B186,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B186,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14725,7 +14733,7 @@
       <c r="E187" s="11"/>
       <c r="F187" s="11"/>
       <c r="G187" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B187,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B187,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B187,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B187,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14739,7 +14747,7 @@
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
       <c r="G188" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B188,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B188,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B188,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B188,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14753,7 +14761,7 @@
       <c r="E189" s="11"/>
       <c r="F189" s="11"/>
       <c r="G189" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B189,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B189,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B189,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B189,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14767,7 +14775,7 @@
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
       <c r="G190" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B190,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B190,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B190,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B190,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14781,7 +14789,7 @@
       <c r="E191" s="11"/>
       <c r="F191" s="11"/>
       <c r="G191" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B191,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B191,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B191,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B191,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14795,7 +14803,7 @@
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
       <c r="G192" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B192,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B192,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B192,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B192,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14809,7 +14817,7 @@
       <c r="E193" s="11"/>
       <c r="F193" s="11"/>
       <c r="G193" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B193,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B193,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B193,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B193,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -14823,7 +14831,7 @@
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
       <c r="G194" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B194,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B194,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B194,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B194,planejamento,6,FALSE),"")</f>
+        <f t="shared" ref="G194:G257" si="3">IFERROR(VLOOKUP(B194,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B194,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B194,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B194,planejamento,6,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -14837,7 +14845,7 @@
       <c r="E195" s="11"/>
       <c r="F195" s="11"/>
       <c r="G195" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B195,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B195,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B195,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B195,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14851,7 +14859,7 @@
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
       <c r="G196" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B196,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B196,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B196,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B196,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14865,7 +14873,7 @@
       <c r="E197" s="11"/>
       <c r="F197" s="11"/>
       <c r="G197" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B197,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B197,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B197,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B197,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14879,7 +14887,7 @@
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
       <c r="G198" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B198,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B198,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B198,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B198,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14893,7 +14901,7 @@
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
       <c r="G199" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B199,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B199,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B199,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B199,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14907,7 +14915,7 @@
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
       <c r="G200" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B200,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B200,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B200,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B200,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14921,7 +14929,7 @@
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
       <c r="G201" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B201,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B201,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B201,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B201,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14935,7 +14943,7 @@
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
       <c r="G202" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B202,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B202,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B202,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B202,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14949,7 +14957,7 @@
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
       <c r="G203" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B203,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B203,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B203,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B203,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14963,7 +14971,7 @@
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
       <c r="G204" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B204,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B204,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B204,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B204,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14977,7 +14985,7 @@
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
       <c r="G205" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B205,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B205,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B205,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B205,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -14991,7 +14999,7 @@
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
       <c r="G206" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B206,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B206,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B206,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B206,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15005,7 +15013,7 @@
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
       <c r="G207" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B207,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B207,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B207,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B207,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15019,7 +15027,7 @@
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
       <c r="G208" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B208,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B208,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B208,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B208,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15033,7 +15041,7 @@
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
       <c r="G209" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B209,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B209,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B209,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B209,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15047,7 +15055,7 @@
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
       <c r="G210" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B210,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B210,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B210,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B210,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15061,7 +15069,7 @@
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
       <c r="G211" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B211,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B211,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B211,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B211,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15075,7 +15083,7 @@
       <c r="E212" s="11"/>
       <c r="F212" s="11"/>
       <c r="G212" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B212,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B212,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B212,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B212,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15089,7 +15097,7 @@
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
       <c r="G213" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B213,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B213,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B213,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B213,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15103,7 +15111,7 @@
       <c r="E214" s="11"/>
       <c r="F214" s="11"/>
       <c r="G214" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B214,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B214,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B214,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B214,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15117,7 +15125,7 @@
       <c r="E215" s="11"/>
       <c r="F215" s="11"/>
       <c r="G215" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B215,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B215,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B215,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B215,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15131,7 +15139,7 @@
       <c r="E216" s="11"/>
       <c r="F216" s="11"/>
       <c r="G216" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B216,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B216,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B216,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B216,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15145,7 +15153,7 @@
       <c r="E217" s="11"/>
       <c r="F217" s="11"/>
       <c r="G217" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B217,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B217,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B217,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B217,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15159,7 +15167,7 @@
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
       <c r="G218" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B218,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B218,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B218,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B218,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15173,7 +15181,7 @@
       <c r="E219" s="11"/>
       <c r="F219" s="11"/>
       <c r="G219" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B219,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B219,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B219,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B219,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15187,7 +15195,7 @@
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
       <c r="G220" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B220,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B220,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B220,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B220,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15201,7 +15209,7 @@
       <c r="E221" s="11"/>
       <c r="F221" s="11"/>
       <c r="G221" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B221,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B221,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B221,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B221,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15215,7 +15223,7 @@
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
       <c r="G222" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B222,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B222,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B222,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B222,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15229,7 +15237,7 @@
       <c r="E223" s="11"/>
       <c r="F223" s="11"/>
       <c r="G223" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B223,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B223,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B223,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B223,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15243,7 +15251,7 @@
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
       <c r="G224" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B224,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B224,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B224,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B224,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15257,7 +15265,7 @@
       <c r="E225" s="11"/>
       <c r="F225" s="11"/>
       <c r="G225" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B225,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B225,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B225,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B225,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15271,7 +15279,7 @@
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
       <c r="G226" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B226,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B226,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B226,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B226,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15285,7 +15293,7 @@
       <c r="E227" s="11"/>
       <c r="F227" s="11"/>
       <c r="G227" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B227,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B227,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B227,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B227,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15299,7 +15307,7 @@
       <c r="E228" s="11"/>
       <c r="F228" s="11"/>
       <c r="G228" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B228,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B228,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B228,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B228,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15313,7 +15321,7 @@
       <c r="E229" s="11"/>
       <c r="F229" s="11"/>
       <c r="G229" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B229,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B229,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B229,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B229,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15327,7 +15335,7 @@
       <c r="E230" s="11"/>
       <c r="F230" s="11"/>
       <c r="G230" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B230,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B230,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B230,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B230,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15341,7 +15349,7 @@
       <c r="E231" s="11"/>
       <c r="F231" s="11"/>
       <c r="G231" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B231,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B231,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B231,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B231,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15355,7 +15363,7 @@
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
       <c r="G232" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B232,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B232,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B232,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B232,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15369,7 +15377,7 @@
       <c r="E233" s="11"/>
       <c r="F233" s="11"/>
       <c r="G233" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B233,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B233,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B233,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B233,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15383,7 +15391,7 @@
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
       <c r="G234" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B234,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B234,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B234,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B234,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15397,7 +15405,7 @@
       <c r="E235" s="11"/>
       <c r="F235" s="11"/>
       <c r="G235" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B235,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B235,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B235,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B235,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15411,7 +15419,7 @@
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
       <c r="G236" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B236,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B236,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B236,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B236,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15425,7 +15433,7 @@
       <c r="E237" s="11"/>
       <c r="F237" s="11"/>
       <c r="G237" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B237,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B237,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B237,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B237,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15439,7 +15447,7 @@
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
       <c r="G238" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B238,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B238,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B238,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B238,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15453,7 +15461,7 @@
       <c r="E239" s="11"/>
       <c r="F239" s="11"/>
       <c r="G239" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B239,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B239,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B239,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B239,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15467,7 +15475,7 @@
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
       <c r="G240" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B240,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B240,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B240,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B240,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15481,7 +15489,7 @@
       <c r="E241" s="11"/>
       <c r="F241" s="11"/>
       <c r="G241" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B241,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B241,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B241,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B241,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15495,7 +15503,7 @@
       <c r="E242" s="11"/>
       <c r="F242" s="11"/>
       <c r="G242" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B242,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B242,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B242,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B242,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15509,7 +15517,7 @@
       <c r="E243" s="11"/>
       <c r="F243" s="11"/>
       <c r="G243" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B243,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B243,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B243,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B243,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15523,7 +15531,7 @@
       <c r="E244" s="11"/>
       <c r="F244" s="11"/>
       <c r="G244" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B244,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B244,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B244,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B244,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15537,7 +15545,7 @@
       <c r="E245" s="11"/>
       <c r="F245" s="11"/>
       <c r="G245" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B245,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B245,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B245,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B245,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15551,7 +15559,7 @@
       <c r="E246" s="11"/>
       <c r="F246" s="11"/>
       <c r="G246" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B246,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B246,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B246,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B246,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15565,7 +15573,7 @@
       <c r="E247" s="11"/>
       <c r="F247" s="11"/>
       <c r="G247" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B247,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B247,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B247,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B247,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15579,7 +15587,7 @@
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
       <c r="G248" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B248,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B248,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B248,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B248,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15593,7 +15601,7 @@
       <c r="E249" s="11"/>
       <c r="F249" s="11"/>
       <c r="G249" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B249,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B249,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B249,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B249,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15607,7 +15615,7 @@
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
       <c r="G250" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B250,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B250,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B250,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B250,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15621,7 +15629,7 @@
       <c r="E251" s="11"/>
       <c r="F251" s="11"/>
       <c r="G251" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B251,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B251,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B251,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B251,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15635,7 +15643,7 @@
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
       <c r="G252" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B252,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B252,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B252,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B252,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15649,7 +15657,7 @@
       <c r="E253" s="11"/>
       <c r="F253" s="11"/>
       <c r="G253" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B253,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B253,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B253,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B253,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15663,7 +15671,7 @@
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
       <c r="G254" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B254,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B254,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B254,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B254,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15677,7 +15685,7 @@
       <c r="E255" s="11"/>
       <c r="F255" s="11"/>
       <c r="G255" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B255,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B255,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B255,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B255,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15691,7 +15699,7 @@
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
       <c r="G256" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B256,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B256,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B256,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B256,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15705,7 +15713,7 @@
       <c r="E257" s="11"/>
       <c r="F257" s="11"/>
       <c r="G257" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B257,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B257,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B257,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B257,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -15719,7 +15727,7 @@
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
       <c r="G258" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B258,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B258,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B258,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B258,planejamento,6,FALSE),"")</f>
+        <f t="shared" ref="G258:G321" si="4">IFERROR(VLOOKUP(B258,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B258,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B258,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B258,planejamento,6,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -15733,7 +15741,7 @@
       <c r="E259" s="11"/>
       <c r="F259" s="11"/>
       <c r="G259" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B259,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B259,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B259,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B259,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15747,7 +15755,7 @@
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
       <c r="G260" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B260,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B260,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B260,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B260,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15761,7 +15769,7 @@
       <c r="E261" s="11"/>
       <c r="F261" s="11"/>
       <c r="G261" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B261,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B261,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B261,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B261,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15775,7 +15783,7 @@
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
       <c r="G262" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B262,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B262,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B262,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B262,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15789,7 +15797,7 @@
       <c r="E263" s="11"/>
       <c r="F263" s="11"/>
       <c r="G263" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B263,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B263,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B263,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B263,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15803,7 +15811,7 @@
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
       <c r="G264" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B264,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B264,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B264,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B264,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15817,7 +15825,7 @@
       <c r="E265" s="11"/>
       <c r="F265" s="11"/>
       <c r="G265" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B265,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B265,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B265,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B265,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15831,7 +15839,7 @@
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
       <c r="G266" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B266,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B266,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B266,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B266,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15845,7 +15853,7 @@
       <c r="E267" s="11"/>
       <c r="F267" s="11"/>
       <c r="G267" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B267,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B267,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B267,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B267,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15859,7 +15867,7 @@
       <c r="E268" s="11"/>
       <c r="F268" s="11"/>
       <c r="G268" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B268,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B268,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B268,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B268,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15873,7 +15881,7 @@
       <c r="E269" s="11"/>
       <c r="F269" s="11"/>
       <c r="G269" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B269,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B269,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B269,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B269,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15887,7 +15895,7 @@
       <c r="E270" s="11"/>
       <c r="F270" s="11"/>
       <c r="G270" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B270,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B270,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B270,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B270,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15901,7 +15909,7 @@
       <c r="E271" s="11"/>
       <c r="F271" s="11"/>
       <c r="G271" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B271,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B271,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B271,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B271,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15915,7 +15923,7 @@
       <c r="E272" s="11"/>
       <c r="F272" s="11"/>
       <c r="G272" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B272,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B272,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B272,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B272,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15929,7 +15937,7 @@
       <c r="E273" s="11"/>
       <c r="F273" s="11"/>
       <c r="G273" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B273,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B273,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B273,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B273,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15943,7 +15951,7 @@
       <c r="E274" s="11"/>
       <c r="F274" s="11"/>
       <c r="G274" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B274,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B274,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B274,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B274,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15957,7 +15965,7 @@
       <c r="E275" s="11"/>
       <c r="F275" s="11"/>
       <c r="G275" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B275,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B275,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B275,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B275,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15971,7 +15979,7 @@
       <c r="E276" s="11"/>
       <c r="F276" s="11"/>
       <c r="G276" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B276,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B276,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B276,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B276,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15985,7 +15993,7 @@
       <c r="E277" s="11"/>
       <c r="F277" s="11"/>
       <c r="G277" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B277,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B277,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B277,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B277,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -15999,7 +16007,7 @@
       <c r="E278" s="11"/>
       <c r="F278" s="11"/>
       <c r="G278" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B278,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B278,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B278,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B278,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16013,7 +16021,7 @@
       <c r="E279" s="11"/>
       <c r="F279" s="11"/>
       <c r="G279" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B279,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B279,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B279,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B279,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16027,7 +16035,7 @@
       <c r="E280" s="11"/>
       <c r="F280" s="11"/>
       <c r="G280" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B280,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B280,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B280,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B280,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16041,7 +16049,7 @@
       <c r="E281" s="11"/>
       <c r="F281" s="11"/>
       <c r="G281" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B281,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B281,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B281,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B281,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16055,7 +16063,7 @@
       <c r="E282" s="11"/>
       <c r="F282" s="11"/>
       <c r="G282" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B282,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B282,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B282,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B282,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16069,7 +16077,7 @@
       <c r="E283" s="11"/>
       <c r="F283" s="11"/>
       <c r="G283" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B283,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B283,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B283,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B283,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16083,7 +16091,7 @@
       <c r="E284" s="11"/>
       <c r="F284" s="11"/>
       <c r="G284" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B284,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B284,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B284,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B284,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16097,7 +16105,7 @@
       <c r="E285" s="11"/>
       <c r="F285" s="11"/>
       <c r="G285" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B285,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B285,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B285,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B285,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16111,7 +16119,7 @@
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
       <c r="G286" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B286,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B286,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B286,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B286,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16125,7 +16133,7 @@
       <c r="E287" s="11"/>
       <c r="F287" s="11"/>
       <c r="G287" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B287,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B287,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B287,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B287,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16139,7 +16147,7 @@
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
       <c r="G288" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B288,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B288,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B288,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B288,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16153,7 +16161,7 @@
       <c r="E289" s="11"/>
       <c r="F289" s="11"/>
       <c r="G289" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B289,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B289,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B289,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B289,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16167,7 +16175,7 @@
       <c r="E290" s="11"/>
       <c r="F290" s="11"/>
       <c r="G290" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B290,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B290,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B290,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B290,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16181,7 +16189,7 @@
       <c r="E291" s="11"/>
       <c r="F291" s="11"/>
       <c r="G291" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B291,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B291,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B291,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B291,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16195,7 +16203,7 @@
       <c r="E292" s="11"/>
       <c r="F292" s="11"/>
       <c r="G292" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B292,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B292,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B292,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B292,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16209,7 +16217,7 @@
       <c r="E293" s="11"/>
       <c r="F293" s="11"/>
       <c r="G293" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B293,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B293,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B293,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B293,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16223,7 +16231,7 @@
       <c r="E294" s="11"/>
       <c r="F294" s="11"/>
       <c r="G294" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B294,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B294,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B294,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B294,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16237,7 +16245,7 @@
       <c r="E295" s="11"/>
       <c r="F295" s="11"/>
       <c r="G295" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B295,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B295,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B295,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B295,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16251,7 +16259,7 @@
       <c r="E296" s="11"/>
       <c r="F296" s="11"/>
       <c r="G296" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B296,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B296,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B296,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B296,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16265,7 +16273,7 @@
       <c r="E297" s="11"/>
       <c r="F297" s="11"/>
       <c r="G297" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B297,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B297,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B297,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B297,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16279,7 +16287,7 @@
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
       <c r="G298" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B298,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B298,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B298,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B298,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16293,7 +16301,7 @@
       <c r="E299" s="11"/>
       <c r="F299" s="11"/>
       <c r="G299" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B299,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B299,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B299,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B299,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16307,7 +16315,7 @@
       <c r="E300" s="11"/>
       <c r="F300" s="11"/>
       <c r="G300" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B300,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B300,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B300,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B300,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16321,7 +16329,7 @@
       <c r="E301" s="11"/>
       <c r="F301" s="11"/>
       <c r="G301" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B301,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B301,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B301,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B301,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16335,7 +16343,7 @@
       <c r="E302" s="11"/>
       <c r="F302" s="11"/>
       <c r="G302" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B302,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B302,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B302,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B302,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16349,7 +16357,7 @@
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
       <c r="G303" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B303,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B303,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B303,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B303,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16363,7 +16371,7 @@
       <c r="E304" s="11"/>
       <c r="F304" s="11"/>
       <c r="G304" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B304,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B304,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B304,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B304,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16377,7 +16385,7 @@
       <c r="E305" s="11"/>
       <c r="F305" s="11"/>
       <c r="G305" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B305,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B305,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B305,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B305,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16391,7 +16399,7 @@
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
       <c r="G306" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B306,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B306,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B306,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B306,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16405,7 +16413,7 @@
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
       <c r="G307" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B307,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B307,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B307,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B307,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16419,7 +16427,7 @@
       <c r="E308" s="11"/>
       <c r="F308" s="11"/>
       <c r="G308" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B308,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B308,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B308,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B308,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16433,7 +16441,7 @@
       <c r="E309" s="11"/>
       <c r="F309" s="11"/>
       <c r="G309" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B309,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B309,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B309,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B309,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16447,7 +16455,7 @@
       <c r="E310" s="11"/>
       <c r="F310" s="11"/>
       <c r="G310" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B310,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B310,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B310,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B310,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16461,7 +16469,7 @@
       <c r="E311" s="11"/>
       <c r="F311" s="11"/>
       <c r="G311" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B311,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B311,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B311,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B311,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16475,7 +16483,7 @@
       <c r="E312" s="11"/>
       <c r="F312" s="11"/>
       <c r="G312" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B312,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B312,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B312,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B312,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16489,7 +16497,7 @@
       <c r="E313" s="11"/>
       <c r="F313" s="11"/>
       <c r="G313" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B313,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B313,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B313,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B313,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16503,7 +16511,7 @@
       <c r="E314" s="11"/>
       <c r="F314" s="11"/>
       <c r="G314" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B314,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B314,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B314,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B314,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16517,7 +16525,7 @@
       <c r="E315" s="11"/>
       <c r="F315" s="11"/>
       <c r="G315" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B315,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B315,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B315,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B315,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16531,7 +16539,7 @@
       <c r="E316" s="11"/>
       <c r="F316" s="11"/>
       <c r="G316" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B316,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B316,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B316,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B316,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16545,7 +16553,7 @@
       <c r="E317" s="11"/>
       <c r="F317" s="11"/>
       <c r="G317" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B317,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B317,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B317,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B317,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16559,7 +16567,7 @@
       <c r="E318" s="11"/>
       <c r="F318" s="11"/>
       <c r="G318" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B318,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B318,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B318,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B318,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16573,7 +16581,7 @@
       <c r="E319" s="11"/>
       <c r="F319" s="11"/>
       <c r="G319" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B319,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B319,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B319,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B319,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16587,7 +16595,7 @@
       <c r="E320" s="11"/>
       <c r="F320" s="11"/>
       <c r="G320" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B320,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B320,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B320,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B320,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16601,7 +16609,7 @@
       <c r="E321" s="11"/>
       <c r="F321" s="11"/>
       <c r="G321" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B321,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B321,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B321,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B321,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -16615,7 +16623,7 @@
       <c r="E322" s="11"/>
       <c r="F322" s="11"/>
       <c r="G322" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B322,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B322,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B322,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B322,planejamento,6,FALSE),"")</f>
+        <f t="shared" ref="G322:G385" si="5">IFERROR(VLOOKUP(B322,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B322,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B322,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B322,planejamento,6,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -16629,7 +16637,7 @@
       <c r="E323" s="11"/>
       <c r="F323" s="11"/>
       <c r="G323" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B323,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B323,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B323,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B323,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16643,7 +16651,7 @@
       <c r="E324" s="11"/>
       <c r="F324" s="11"/>
       <c r="G324" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B324,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B324,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B324,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B324,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16657,7 +16665,7 @@
       <c r="E325" s="11"/>
       <c r="F325" s="11"/>
       <c r="G325" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B325,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B325,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B325,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B325,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16671,7 +16679,7 @@
       <c r="E326" s="11"/>
       <c r="F326" s="11"/>
       <c r="G326" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B326,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B326,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B326,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B326,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16685,7 +16693,7 @@
       <c r="E327" s="11"/>
       <c r="F327" s="11"/>
       <c r="G327" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B327,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B327,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B327,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B327,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16699,7 +16707,7 @@
       <c r="E328" s="11"/>
       <c r="F328" s="11"/>
       <c r="G328" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B328,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B328,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B328,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B328,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16713,7 +16721,7 @@
       <c r="E329" s="11"/>
       <c r="F329" s="11"/>
       <c r="G329" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B329,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B329,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B329,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B329,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16727,7 +16735,7 @@
       <c r="E330" s="11"/>
       <c r="F330" s="11"/>
       <c r="G330" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B330,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B330,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B330,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B330,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16741,7 +16749,7 @@
       <c r="E331" s="11"/>
       <c r="F331" s="11"/>
       <c r="G331" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B331,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B331,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B331,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B331,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16755,7 +16763,7 @@
       <c r="E332" s="11"/>
       <c r="F332" s="11"/>
       <c r="G332" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B332,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B332,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B332,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B332,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16769,7 +16777,7 @@
       <c r="E333" s="11"/>
       <c r="F333" s="11"/>
       <c r="G333" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B333,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B333,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B333,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B333,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16783,7 +16791,7 @@
       <c r="E334" s="11"/>
       <c r="F334" s="11"/>
       <c r="G334" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B334,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B334,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B334,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B334,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16797,7 +16805,7 @@
       <c r="E335" s="11"/>
       <c r="F335" s="11"/>
       <c r="G335" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B335,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B335,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B335,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B335,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16811,7 +16819,7 @@
       <c r="E336" s="11"/>
       <c r="F336" s="11"/>
       <c r="G336" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B336,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B336,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B336,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B336,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16825,7 +16833,7 @@
       <c r="E337" s="11"/>
       <c r="F337" s="11"/>
       <c r="G337" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B337,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B337,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B337,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B337,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16839,7 +16847,7 @@
       <c r="E338" s="11"/>
       <c r="F338" s="11"/>
       <c r="G338" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B338,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B338,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B338,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B338,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16853,7 +16861,7 @@
       <c r="E339" s="11"/>
       <c r="F339" s="11"/>
       <c r="G339" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B339,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B339,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B339,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B339,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16867,7 +16875,7 @@
       <c r="E340" s="11"/>
       <c r="F340" s="11"/>
       <c r="G340" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B340,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B340,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B340,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B340,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16881,7 +16889,7 @@
       <c r="E341" s="11"/>
       <c r="F341" s="11"/>
       <c r="G341" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B341,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B341,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B341,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B341,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16895,7 +16903,7 @@
       <c r="E342" s="11"/>
       <c r="F342" s="11"/>
       <c r="G342" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B342,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B342,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B342,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B342,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16909,7 +16917,7 @@
       <c r="E343" s="11"/>
       <c r="F343" s="11"/>
       <c r="G343" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B343,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B343,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B343,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B343,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16923,7 +16931,7 @@
       <c r="E344" s="11"/>
       <c r="F344" s="11"/>
       <c r="G344" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B344,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B344,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B344,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B344,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16937,7 +16945,7 @@
       <c r="E345" s="11"/>
       <c r="F345" s="11"/>
       <c r="G345" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B345,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B345,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B345,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B345,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16951,7 +16959,7 @@
       <c r="E346" s="11"/>
       <c r="F346" s="11"/>
       <c r="G346" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B346,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B346,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B346,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B346,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16965,7 +16973,7 @@
       <c r="E347" s="11"/>
       <c r="F347" s="11"/>
       <c r="G347" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B347,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B347,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B347,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B347,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16979,7 +16987,7 @@
       <c r="E348" s="11"/>
       <c r="F348" s="11"/>
       <c r="G348" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B348,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B348,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B348,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B348,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -16993,7 +17001,7 @@
       <c r="E349" s="11"/>
       <c r="F349" s="11"/>
       <c r="G349" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B349,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B349,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B349,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B349,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17007,7 +17015,7 @@
       <c r="E350" s="11"/>
       <c r="F350" s="11"/>
       <c r="G350" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B350,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B350,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B350,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B350,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17021,7 +17029,7 @@
       <c r="E351" s="11"/>
       <c r="F351" s="11"/>
       <c r="G351" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B351,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B351,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B351,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B351,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17035,7 +17043,7 @@
       <c r="E352" s="11"/>
       <c r="F352" s="11"/>
       <c r="G352" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B352,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B352,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B352,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B352,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17049,7 +17057,7 @@
       <c r="E353" s="11"/>
       <c r="F353" s="11"/>
       <c r="G353" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B353,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B353,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B353,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B353,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17063,7 +17071,7 @@
       <c r="E354" s="11"/>
       <c r="F354" s="11"/>
       <c r="G354" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B354,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B354,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B354,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B354,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17077,7 +17085,7 @@
       <c r="E355" s="11"/>
       <c r="F355" s="11"/>
       <c r="G355" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B355,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B355,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B355,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B355,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17091,7 +17099,7 @@
       <c r="E356" s="11"/>
       <c r="F356" s="11"/>
       <c r="G356" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B356,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B356,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B356,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B356,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17105,7 +17113,7 @@
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
       <c r="G357" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B357,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B357,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B357,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B357,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17119,7 +17127,7 @@
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
       <c r="G358" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B358,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B358,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B358,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B358,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17133,7 +17141,7 @@
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
       <c r="G359" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B359,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B359,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B359,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B359,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17147,7 +17155,7 @@
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
       <c r="G360" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B360,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B360,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B360,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B360,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17161,7 +17169,7 @@
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
       <c r="G361" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B361,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B361,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B361,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B361,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17175,7 +17183,7 @@
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
       <c r="G362" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B362,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B362,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B362,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B362,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17189,7 +17197,7 @@
       <c r="E363" s="11"/>
       <c r="F363" s="11"/>
       <c r="G363" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B363,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B363,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B363,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B363,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17203,7 +17211,7 @@
       <c r="E364" s="11"/>
       <c r="F364" s="11"/>
       <c r="G364" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B364,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B364,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B364,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B364,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17217,7 +17225,7 @@
       <c r="E365" s="11"/>
       <c r="F365" s="11"/>
       <c r="G365" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B365,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B365,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B365,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B365,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17231,7 +17239,7 @@
       <c r="E366" s="11"/>
       <c r="F366" s="11"/>
       <c r="G366" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B366,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B366,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B366,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B366,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17245,7 +17253,7 @@
       <c r="E367" s="11"/>
       <c r="F367" s="11"/>
       <c r="G367" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B367,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B367,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B367,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B367,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17259,7 +17267,7 @@
       <c r="E368" s="11"/>
       <c r="F368" s="11"/>
       <c r="G368" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B368,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B368,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B368,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B368,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17273,7 +17281,7 @@
       <c r="E369" s="11"/>
       <c r="F369" s="11"/>
       <c r="G369" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B369,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B369,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B369,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B369,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17287,7 +17295,7 @@
       <c r="E370" s="11"/>
       <c r="F370" s="11"/>
       <c r="G370" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B370,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B370,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B370,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B370,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17301,7 +17309,7 @@
       <c r="E371" s="11"/>
       <c r="F371" s="11"/>
       <c r="G371" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B371,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B371,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B371,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B371,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17315,7 +17323,7 @@
       <c r="E372" s="11"/>
       <c r="F372" s="11"/>
       <c r="G372" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B372,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B372,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B372,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B372,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17329,7 +17337,7 @@
       <c r="E373" s="11"/>
       <c r="F373" s="11"/>
       <c r="G373" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B373,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B373,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B373,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B373,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17343,7 +17351,7 @@
       <c r="E374" s="11"/>
       <c r="F374" s="11"/>
       <c r="G374" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B374,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B374,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B374,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B374,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17357,7 +17365,7 @@
       <c r="E375" s="11"/>
       <c r="F375" s="11"/>
       <c r="G375" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B375,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B375,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B375,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B375,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17371,7 +17379,7 @@
       <c r="E376" s="11"/>
       <c r="F376" s="11"/>
       <c r="G376" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B376,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B376,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B376,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B376,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17385,7 +17393,7 @@
       <c r="E377" s="11"/>
       <c r="F377" s="11"/>
       <c r="G377" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B377,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B377,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B377,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B377,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17399,7 +17407,7 @@
       <c r="E378" s="11"/>
       <c r="F378" s="11"/>
       <c r="G378" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B378,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B378,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B378,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B378,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17413,7 +17421,7 @@
       <c r="E379" s="11"/>
       <c r="F379" s="11"/>
       <c r="G379" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B379,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B379,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B379,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B379,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17427,7 +17435,7 @@
       <c r="E380" s="11"/>
       <c r="F380" s="11"/>
       <c r="G380" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B380,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B380,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B380,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B380,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17441,7 +17449,7 @@
       <c r="E381" s="11"/>
       <c r="F381" s="11"/>
       <c r="G381" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B381,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B381,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B381,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B381,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17455,7 +17463,7 @@
       <c r="E382" s="11"/>
       <c r="F382" s="11"/>
       <c r="G382" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B382,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B382,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B382,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B382,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17469,7 +17477,7 @@
       <c r="E383" s="11"/>
       <c r="F383" s="11"/>
       <c r="G383" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B383,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B383,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B383,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B383,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17483,7 +17491,7 @@
       <c r="E384" s="11"/>
       <c r="F384" s="11"/>
       <c r="G384" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B384,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B384,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B384,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B384,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17497,7 +17505,7 @@
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
       <c r="G385" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B385,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B385,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B385,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B385,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -17511,7 +17519,7 @@
       <c r="E386" s="11"/>
       <c r="F386" s="11"/>
       <c r="G386" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B386,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B386,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B386,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B386,planejamento,6,FALSE),"")</f>
+        <f t="shared" ref="G386:G401" si="6">IFERROR(VLOOKUP(B386,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B386,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B386,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B386,planejamento,6,FALSE),"")</f>
         <v/>
       </c>
     </row>
@@ -17525,7 +17533,7 @@
       <c r="E387" s="11"/>
       <c r="F387" s="11"/>
       <c r="G387" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B387,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B387,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B387,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B387,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17539,7 +17547,7 @@
       <c r="E388" s="11"/>
       <c r="F388" s="11"/>
       <c r="G388" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B388,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B388,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B388,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B388,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17553,7 +17561,7 @@
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
       <c r="G389" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B389,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B389,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B389,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B389,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17567,7 +17575,7 @@
       <c r="E390" s="11"/>
       <c r="F390" s="11"/>
       <c r="G390" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B390,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B390,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B390,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B390,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17581,7 +17589,7 @@
       <c r="E391" s="11"/>
       <c r="F391" s="11"/>
       <c r="G391" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B391,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B391,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B391,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B391,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17595,7 +17603,7 @@
       <c r="E392" s="11"/>
       <c r="F392" s="11"/>
       <c r="G392" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B392,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B392,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B392,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B392,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17609,7 +17617,7 @@
       <c r="E393" s="11"/>
       <c r="F393" s="11"/>
       <c r="G393" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B393,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B393,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B393,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B393,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17623,7 +17631,7 @@
       <c r="E394" s="11"/>
       <c r="F394" s="11"/>
       <c r="G394" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B394,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B394,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B394,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B394,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17637,7 +17645,7 @@
       <c r="E395" s="11"/>
       <c r="F395" s="11"/>
       <c r="G395" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B395,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B395,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B395,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B395,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17651,7 +17659,7 @@
       <c r="E396" s="11"/>
       <c r="F396" s="11"/>
       <c r="G396" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B396,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B396,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B396,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B396,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17665,7 +17673,7 @@
       <c r="E397" s="11"/>
       <c r="F397" s="11"/>
       <c r="G397" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B397,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B397,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B397,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B397,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17679,7 +17687,7 @@
       <c r="E398" s="11"/>
       <c r="F398" s="11"/>
       <c r="G398" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B398,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B398,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B398,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B398,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17693,7 +17701,7 @@
       <c r="E399" s="11"/>
       <c r="F399" s="11"/>
       <c r="G399" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B399,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B399,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B399,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B399,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17707,7 +17715,7 @@
       <c r="E400" s="11"/>
       <c r="F400" s="11"/>
       <c r="G400" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B400,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B400,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B400,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B400,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -17721,7 +17729,7 @@
       <c r="E401" s="11"/>
       <c r="F401" s="11"/>
       <c r="G401" s="11" t="str">
-        <f>IFERROR(VLOOKUP(B401,planejamento,3,FALSE)&amp;"/"&amp;VLOOKUP(B401,planejamento,4,FALSE)&amp;"/"&amp;VLOOKUP(B401,planejamento,5,FALSE)&amp;"/"&amp;VLOOKUP(B401,planejamento,6,FALSE),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
